--- a/StudentGradesForRami/Assignment1_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment1_Grade_Comparison.xlsx
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>57.5</v>
+        <v>58.5</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.13</v>
+        <v>2.47642382544722</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-57.37</v>
+        <v>-56.02357617455278</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>57.37</v>
+        <v>56.02357617455278</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -552,19 +552,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>40.58</v>
+        <v>42.75806278981952</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-29.42</v>
+        <v>-28.24193721018048</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>29.42</v>
+        <v>28.24193721018048</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>60</v>
+        <v>61.5</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>32.81</v>
+        <v>35.77035289180932</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-27.19</v>
+        <v>-25.72964710819068</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>88</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>27.19</v>
+        <v>25.72964710819067</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>45.95</v>
+        <v>48.30075479903226</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-31.05</v>
+        <v>-29.69924520096774</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>31.05</v>
+        <v>29.69924520096774</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>74.5</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-14.47</v>
+        <v>-10.97762873788439</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>14.47</v>
+        <v>10.97762873788439</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>36.23</v>
+        <v>38.40456802230448</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-31.77</v>
+        <v>-30.59543197769552</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>31.77</v>
+        <v>30.59543197769552</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -687,23 +687,23 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>77.5</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>61.79</v>
+        <v>71.16323769537362</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-15.71</v>
+        <v>-10.83676230462638</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>92</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>15.71</v>
+        <v>10.83676230462637</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>83.5</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>61.23</v>
+        <v>60.05058325379765</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-22.27</v>
+        <v>-22.94941674620235</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>22.27</v>
+        <v>22.94941674620235</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -741,19 +741,19 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-43.2</v>
+        <v>-43.87388495597507</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>43.2</v>
+        <v>43.87388495597507</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>60.5</v>
+        <v>61.5</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>30.24</v>
+        <v>32.26597515617419</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>-30.26</v>
+        <v>-29.23402484382581</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>90</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>30.26</v>
+        <v>29.23402484382581</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>74.5</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-14.47</v>
+        <v>-10.97762873788439</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>14.47</v>
+        <v>10.97762873788439</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -822,19 +822,19 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>19.22</v>
+        <v>20.9763409466208</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-25.78</v>
+        <v>-25.0236590533792</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>79</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>25.78</v>
+        <v>25.0236590533792</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -849,19 +849,19 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>10.11</v>
+        <v>12.28359941721424</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-45.89</v>
+        <v>-44.71640058278576</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45.89</v>
+        <v>44.71640058278576</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -876,19 +876,19 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>83.5</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>61.23</v>
+        <v>60.05058325379765</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-22.27</v>
+        <v>-22.94941674620235</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>22.27</v>
+        <v>22.94941674620235</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -903,19 +903,19 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-50.5</v>
+        <v>-50</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>52.37</v>
+        <v>52.9536322690884</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -930,19 +930,19 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>-50.5</v>
+        <v>-50</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>52.37</v>
+        <v>52.9536322690884</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -957,19 +957,19 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-43.2</v>
+        <v>-43.87388495597507</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>43.2</v>
+        <v>43.87388495597507</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>82.5</v>
+        <v>84.5</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>67.79000000000001</v>
+        <v>72.14415247054603</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>-14.71</v>
+        <v>-12.35584752945397</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>14.71</v>
+        <v>12.35584752945396</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>82.5</v>
+        <v>84.5</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>67.79000000000001</v>
+        <v>72.14415247054603</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>-14.71</v>
+        <v>-12.35584752945397</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>14.71</v>
+        <v>12.35584752945396</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -1041,16 +1041,16 @@
         <v>92.5</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>89.56</v>
+        <v>89.5581315406062</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-2.94</v>
+        <v>-2.941868459393802</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.94</v>
+        <v>2.9418684593938</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -1065,19 +1065,19 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>35.24</v>
+        <v>37.44786130765369</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>-33.26</v>
+        <v>-32.05213869234631</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>33.26</v>
+        <v>32.05213869234631</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -1095,16 +1095,16 @@
         <v>61</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>18.67</v>
+        <v>18.66698663275016</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>-42.33</v>
+        <v>-42.33301336724984</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>42.33</v>
+        <v>42.33301336724984</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1119,19 +1119,19 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>19.22</v>
+        <v>20.9763409466208</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>-25.78</v>
+        <v>-25.0236590533792</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>79</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>25.78</v>
+        <v>25.0236590533792</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>40.15</v>
+        <v>42.26755467544957</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>-27.85</v>
+        <v>-26.73244532455043</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>93</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>27.85</v>
+        <v>26.73244532455043</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
@@ -1173,19 +1173,19 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>45.95</v>
+        <v>48.30075479903226</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>-31.05</v>
+        <v>-29.69924520096774</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>31.05</v>
+        <v>29.69924520096774</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -1200,19 +1200,19 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>45.95</v>
+        <v>48.30075479903226</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>-31.05</v>
+        <v>-29.69924520096774</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>31.05</v>
+        <v>29.69924520096774</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1230,16 +1230,16 @@
         <v>61</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>18.67</v>
+        <v>18.66698663275016</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>-42.33</v>
+        <v>-42.33301336724984</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>42.33</v>
+        <v>42.33301336724984</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>40.15</v>
+        <v>42.26755467544957</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>-27.85</v>
+        <v>-26.73244532455043</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>93</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>27.85</v>
+        <v>26.73244532455043</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
@@ -1281,19 +1281,19 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>35.24</v>
+        <v>37.44786130765369</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>-33.26</v>
+        <v>-32.05213869234631</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>33.26</v>
+        <v>32.05213869234631</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
@@ -1335,19 +1335,19 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>60</v>
+        <v>61.5</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>32.81</v>
+        <v>35.77035289180932</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>-27.19</v>
+        <v>-25.72964710819068</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>88</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>27.19</v>
+        <v>25.72964710819067</v>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
@@ -1362,23 +1362,23 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>77.5</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>61.79</v>
+        <v>71.16323769537362</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>-15.71</v>
+        <v>-10.83676230462638</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>92</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>15.71</v>
+        <v>10.83676230462637</v>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1389,19 +1389,19 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>10.11</v>
+        <v>12.28359941721424</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>-45.89</v>
+        <v>-44.71640058278576</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45.89</v>
+        <v>44.71640058278576</v>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
@@ -1419,16 +1419,16 @@
         <v>92.5</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>89.56</v>
+        <v>89.5581315406062</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>-2.94</v>
+        <v>-2.941868459393802</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.94</v>
+        <v>2.9418684593938</v>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
@@ -1436,6 +1436,7 @@
         </is>
       </c>
     </row>
+    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>

--- a/StudentGradesForRami/Assignment1_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment1_Grade_Comparison.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
         <bgColor rgb="00FFC7CE"/>
       </patternFill>
@@ -62,6 +68,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6E0B4"/>
         <bgColor rgb="00C6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -95,6 +107,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,20 +542,20 @@
           <t>38950</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>58.5</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>2.47642382544722</v>
+        <v>2.48</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-56.02357617455278</v>
+        <v>-56.02</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>56.02357617455278</v>
+        <v>56.02</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -551,20 +569,20 @@
           <t>38951</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="5" t="n">
         <v>71</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>42.75806278981952</v>
+        <v>42.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-28.24193721018048</v>
+        <v>-28.24</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>28.24193721018048</v>
+        <v>28.24</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -578,20 +596,20 @@
           <t>38952</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="6" t="n">
         <v>61.5</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>35.77035289180932</v>
+        <v>35.77</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-25.72964710819068</v>
+        <v>-25.73</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>88</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>25.72964710819067</v>
+        <v>25.73</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -605,20 +623,20 @@
           <t>38953</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="5" t="n">
         <v>78</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>48.30075479903226</v>
+        <v>48.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-29.69924520096774</v>
+        <v>-29.7</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29.69924520096774</v>
+        <v>29.7</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -632,20 +650,20 @@
           <t>38954</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>67.02237126211561</v>
+      <c r="C6" s="6" t="n">
+        <v>67.02</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-10.97762873788439</v>
+        <v>-10.98</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>10.97762873788439</v>
+        <v>10.98</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -659,20 +677,20 @@
           <t>38955</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="6" t="n">
         <v>69</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>38.40456802230448</v>
+        <v>38.4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-30.59543197769552</v>
+        <v>-30.6</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>30.59543197769552</v>
+        <v>30.6</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -683,50 +701,50 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>38959</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>71.16323769537362</v>
+          <t>38958</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2.48</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-10.83676230462638</v>
+        <v>-56.02</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>10.83676230462637</v>
+        <v>56.02</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>38960</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>83</v>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>82</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>60.05058325379765</v>
+        <v>71.16</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-22.94941674620235</v>
+        <v>-10.84</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>22.94941674620235</v>
+        <v>10.84</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -737,50 +755,50 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>38962</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>23.62611504402493</v>
+          <t>38960</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>60.05</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-43.87388495597507</v>
+        <v>-22.95</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>43.87388495597507</v>
+        <v>22.95</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>38963</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>61.5</v>
+          <t>38962</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>67.5</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>32.26597515617419</v>
+        <v>23.63</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>-29.23402484382581</v>
+        <v>-43.87</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>29.23402484382581</v>
+        <v>43.87</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -791,23 +809,23 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>38964</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>67.02237126211561</v>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>32.27</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-10.97762873788439</v>
+        <v>-29.23</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>10.97762873788439</v>
+        <v>29.23</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -818,118 +836,118 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>38966</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>20.9763409466208</v>
+          <t>38964</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>67.02</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-25.0236590533792</v>
+        <v>-10.98</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>25.0236590533792</v>
+        <v>10.98</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Below Standard</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>38969</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>57</v>
+          <t>38966</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>12.28359941721424</v>
+        <v>20.98</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-44.71640058278576</v>
+        <v>-25.02</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44.71640058278576</v>
+        <v>25.02</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Below Standard</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>38970</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>60.05058325379765</v>
+          <t>38969</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>12.28</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-22.94941674620235</v>
+        <v>-44.72</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>22.94941674620235</v>
+        <v>44.72</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>38971</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>0</v>
+          <t>38970</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>60.05</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-50</v>
+        <v>-22.95</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>52.9536322690884</v>
+        <v>22.95</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Below Standard</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>38973</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
+          <t>38971</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
         <v>50</v>
       </c>
       <c r="C17" s="3" t="n">
@@ -942,7 +960,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>52.9536322690884</v>
+        <v>52.95</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -953,77 +971,77 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>38977</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>67.5</v>
+          <t>38973</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>23.62611504402493</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-43.87388495597507</v>
+        <v>-50</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>43.87388495597507</v>
+        <v>52.95</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Below Standard</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>38979</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>72.14415247054603</v>
+          <t>38977</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>23.63</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>-12.35584752945397</v>
+        <v>-43.87</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>12.35584752945396</v>
+        <v>43.87</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>38980</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
+          <t>38979</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
         <v>84.5</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>72.14415247054603</v>
+        <v>72.14</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>-12.35584752945397</v>
+        <v>-12.36</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>12.35584752945396</v>
+        <v>12.36</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -1034,77 +1052,77 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>38981</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>89.5581315406062</v>
+          <t>38980</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>72.14</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-2.941868459393802</v>
+        <v>-12.36</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.9418684593938</v>
+        <v>12.36</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Excellence</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>38982</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>37.44786130765369</v>
+          <t>38981</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>89.56</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>-32.05213869234631</v>
+        <v>-2.94</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>32.05213869234631</v>
+        <v>2.94</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Excellence</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>38984</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>61</v>
+          <t>38982</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>69.5</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>18.66698663275016</v>
+        <v>37.45</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>-42.33301336724984</v>
+        <v>-32.05</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>42.33301336724984</v>
+        <v>32.05</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1115,77 +1133,77 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>38985</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>46</v>
+          <t>38984</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>20.9763409466208</v>
+        <v>18.67</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>-25.0236590533792</v>
+        <v>-42.33</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>25.0236590533792</v>
+        <v>42.33</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Below Standard</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>38986</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>69</v>
+          <t>38985</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>42.26755467544957</v>
+        <v>20.98</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>-26.73244532455043</v>
+        <v>-25.02</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>26.73244532455043</v>
+        <v>25.02</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Below Standard</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>38988</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>78</v>
+          <t>38986</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>48.30075479903226</v>
+        <v>42.27</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>-29.69924520096774</v>
+        <v>-26.73</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>29.69924520096774</v>
+        <v>26.73</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -1196,23 +1214,23 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>38989</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
+          <t>38988</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="n">
         <v>78</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>48.30075479903226</v>
+        <v>48.3</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>-29.69924520096774</v>
+        <v>-29.7</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>29.69924520096774</v>
+        <v>29.7</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1223,23 +1241,23 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>38990</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>61</v>
+          <t>38989</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>18.66698663275016</v>
+        <v>48.3</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>-42.33301336724984</v>
+        <v>-29.7</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>42.33301336724984</v>
+        <v>29.7</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -1250,23 +1268,23 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>38992</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>69</v>
+          <t>38990</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>42.26755467544957</v>
+        <v>18.67</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>-26.73244532455043</v>
+        <v>-42.33</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>26.73244532455043</v>
+        <v>42.33</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
@@ -1277,23 +1295,23 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>38993</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>69.5</v>
+          <t>38992</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>37.44786130765369</v>
+        <v>42.27</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>-32.05213869234631</v>
+        <v>-26.73</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>32.05213869234631</v>
+        <v>26.73</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
@@ -1304,174 +1322,200 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>48951</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>24.5</v>
+          <t>38993</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>69.5</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>8.529999999999999</v>
+        <v>37.45</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>-15.97</v>
+        <v>-32.05</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>24.5</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>15.97</v>
+        <v>32.05</v>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Below Standard</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>59373</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>61.5</v>
+          <t>48951</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>24.5</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>35.77035289180932</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>-25.72964710819068</v>
+        <v>-15.97</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>88</v>
+        <v>24.5</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>25.72964710819067</v>
+        <v>15.97</v>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Below Standard</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>59375</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>71.16323769537362</v>
+          <t>59373</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>35.77</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>-10.83676230462638</v>
+        <v>-25.73</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>10.83676230462637</v>
+        <v>25.73</v>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Potential</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>59376</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>12.28359941721424</v>
+          <t>59375</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>71.16</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>-44.71640058278576</v>
+        <v>-10.84</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44.71640058278576</v>
+        <v>10.84</v>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>59378</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>89.5581315406062</v>
+          <t>59376</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>12.28</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>-2.941868459393802</v>
+        <v>-44.72</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.9418684593938</v>
+        <v>44.72</v>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
+          <t>Potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>59378</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>89.56</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
           <t>Excellence</t>
-        </is>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Summary Statistics</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Average Calculated Grade:</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>67.25</v>
+          <t>Summary Statistics</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Average Weighted Grade:</t>
+          <t>Average Calculated Grade:</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38.13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Average Weighted Grade:</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Average Penalty:</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>29.23</v>
+      <c r="B41" t="n">
+        <v>28.92</v>
       </c>
     </row>
   </sheetData>
